--- a/Data Files/credentialsDDT.xlsx
+++ b/Data Files/credentialsDDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlively/git/KatalonDDT_Demo/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EFDDF3-8A95-AA4F-93C2-4DA4D1298653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9156B291-71F8-CA48-B815-DDDBE4878DF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="4480" windowWidth="27640" windowHeight="15720" xr2:uid="{E981D247-1CC1-5249-B4AE-42BB120E290B}"/>
+    <workbookView xWindow="5900" yWindow="460" windowWidth="27640" windowHeight="15720" xr2:uid="{E981D247-1CC1-5249-B4AE-42BB120E290B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,13 @@
     <t>Mike Lively</t>
   </si>
   <si>
-    <t>password123</t>
-  </si>
-  <si>
     <t>Tony Gibson</t>
   </si>
   <si>
-    <t>password456</t>
+    <t>yqW5rjbSfETmh/f/nqF1Gg==</t>
+  </si>
+  <si>
+    <t>yqW5rjbSfESVZVUMhwrnuA==</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
